--- a/CS3210_graph.xlsx
+++ b/CS3210_graph.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nusu-my.sharepoint.com/personal/e0310555_u_nus_edu/Documents/harddisk/Notes/CS3210/Assignment/CS3210-Lab/A1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nusu-my.sharepoint.com/personal/e0310555_u_nus_edu/Documents/harddisk/Notes/CS3210/Assignment/CS3210-Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="993" documentId="8_{B5DF9EE0-C83C-4141-B41C-DF679CF64FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17691BCF-9E08-4E53-BAE0-EFDEA27F4521}"/>
+  <xr:revisionPtr revIDLastSave="1077" documentId="8_{B5DF9EE0-C83C-4141-B41C-DF679CF64FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA20E414-BB11-479B-BCEB-53DB884DE74E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FE78EBC8-27C0-48B5-B42A-0A85A164FE69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -121,7 +121,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,8 +200,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -329,11 +335,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -465,6 +495,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5099,13 +5150,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Chart </a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Time vs Map Worker</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1600"/>
-              <a:t>Title</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5176,10 +5224,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$F$192,Sheet1!$F$197,Sheet1!$F$202,Sheet1!$F$207,Sheet1!$F$212)</c:f>
+              <c:f>(Sheet1!$F$192,Sheet1!$F$198,Sheet1!$F$204,Sheet1!$F$210,Sheet1!$F$216,Sheet1!$F$222)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>26.26</c:v>
                 </c:pt>
@@ -5194,6 +5242,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5237,10 +5288,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$F$193,Sheet1!$F$198,Sheet1!$F$203,Sheet1!$F$208,Sheet1!$F$213)</c:f>
+              <c:f>(Sheet1!$F$193,Sheet1!$F$199,Sheet1!$F$205,Sheet1!$F$211,Sheet1!$F$217,Sheet1!$F$223)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>27.21</c:v>
                 </c:pt>
@@ -5255,6 +5306,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5298,10 +5352,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$F$194,Sheet1!$F$199,Sheet1!$F$204,Sheet1!$F$209,Sheet1!$F$214)</c:f>
+              <c:f>(Sheet1!$F$194,Sheet1!$F$200,Sheet1!$F$206,Sheet1!$F$212,Sheet1!$F$218,Sheet1!$F$224)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>27.12</c:v>
                 </c:pt>
@@ -5316,6 +5370,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5359,10 +5416,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$F$195,Sheet1!$F$200,Sheet1!$F$205,Sheet1!$F$215)</c:f>
+              <c:f>(Sheet1!$F$195,Sheet1!$F$201,Sheet1!$F$207,Sheet1!$F$213,Sheet1!$F$219,Sheet1!$F$225)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>27.11</c:v>
                 </c:pt>
@@ -5373,7 +5430,13 @@
                   <c:v>9.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>9.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>9.3699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5417,10 +5480,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$F$196,Sheet1!$F$201,Sheet1!$F$206,Sheet1!$F$211,Sheet1!$F$216)</c:f>
+              <c:f>(Sheet1!$F$196,Sheet1!$F$202,Sheet1!$F$208,Sheet1!$F$214,Sheet1!$F$220,Sheet1!$F$226)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>27.23</c:v>
                 </c:pt>
@@ -5435,6 +5498,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9.3800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5443,6 +5509,70 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-676C-49F7-A9B7-734820698897}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>reduce_worker = 6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$F$197,Sheet1!$F$203,Sheet1!$F$209,Sheet1!$F$215,Sheet1!$F$221,Sheet1!$F$227)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>28.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000056-A648-4056-926E-06E9DE941FA5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5488,6 +5618,851 @@
                 <a:r>
                   <a:rPr lang="en-GB" sz="1100"/>
                   <a:t>Number of map_worker</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47910349787507711"/>
+              <c:y val="0.95430265567590655"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598520504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="598520504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100"/>
+                  <a:t>time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598519520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time vs Reduce Worker</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>map_worker = 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-567D-4347-BBF1-54C0BE4F3FA2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$192:$F$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>26.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F2BE-4FCA-B80B-ACD7ED38AA4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>map_worker = 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$198:$F$203</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F2BE-4FCA-B80B-ACD7ED38AA4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>map_worker = 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$204:$F$209</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.210000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F2BE-4FCA-B80B-ACD7ED38AA4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>map_worker = 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$210:$F$215</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5299999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F2BE-4FCA-B80B-ACD7ED38AA4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>map_worker = 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$216:$F$221</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F2BE-4FCA-B80B-ACD7ED38AA4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>map_worker = 6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$222:$F$227</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5200-402B-9450-4E14B99C8BD2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="598519520"/>
+        <c:axId val="598520504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="598519520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100"/>
+                  <a:t>Number of reduce_worker</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
@@ -12055,6 +13030,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -15420,6 +16435,509 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20483,22 +22001,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>387800</xdr:colOff>
+      <xdr:colOff>511625</xdr:colOff>
       <xdr:row>189</xdr:row>
       <xdr:rowOff>179614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>326571</xdr:colOff>
+      <xdr:colOff>450396</xdr:colOff>
       <xdr:row>224</xdr:row>
       <xdr:rowOff>108858</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="9" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FF0ADC9-DEA6-4A86-A82A-F4FECEA3733F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B9C19601-F90B-497E-A0C1-06B8D3DD2485}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20511,6 +22032,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>564700</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="35" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF4280EF-DE3D-4E2A-9448-AECA89EC6EBF}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8FF0ADC9-DEA6-4A86-A82A-F4FECEA3733F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -20816,10 +22378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041DD778-6F0C-41F6-AC22-75821C023CBE}">
-  <dimension ref="A2:AO216"/>
+  <dimension ref="A2:AO227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH214" sqref="AH214"/>
+    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I231" sqref="I231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23968,20 +25530,20 @@
       </c>
     </row>
     <row r="197" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="41">
+      <c r="B197" s="45">
         <v>6</v>
       </c>
-      <c r="C197" s="41">
+      <c r="C197" s="45">
+        <v>1</v>
+      </c>
+      <c r="D197" s="45">
+        <v>6</v>
+      </c>
+      <c r="E197" s="45">
         <v>2</v>
       </c>
-      <c r="D197" s="41">
-        <v>1</v>
-      </c>
-      <c r="E197" s="41">
-        <v>2</v>
-      </c>
-      <c r="F197" s="41">
-        <v>13.91</v>
+      <c r="F197" s="45">
+        <v>28.53</v>
       </c>
     </row>
     <row r="198" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23992,13 +25554,13 @@
         <v>2</v>
       </c>
       <c r="D198" s="41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E198" s="41">
         <v>2</v>
       </c>
       <c r="F198" s="41">
-        <v>14.04</v>
+        <v>13.91</v>
       </c>
     </row>
     <row r="199" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24009,13 +25571,13 @@
         <v>2</v>
       </c>
       <c r="D199" s="41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E199" s="41">
         <v>2</v>
       </c>
       <c r="F199" s="41">
-        <v>13.9</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="200" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24026,13 +25588,13 @@
         <v>2</v>
       </c>
       <c r="D200" s="41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E200" s="41">
         <v>2</v>
       </c>
       <c r="F200" s="41">
-        <v>13.91</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="201" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24043,47 +25605,47 @@
         <v>2</v>
       </c>
       <c r="D201" s="41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E201" s="41">
         <v>2</v>
       </c>
       <c r="F201" s="41">
-        <v>13.9</v>
+        <v>13.91</v>
       </c>
     </row>
     <row r="202" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="42">
+      <c r="B202" s="41">
         <v>6</v>
       </c>
-      <c r="C202" s="42">
-        <v>3</v>
-      </c>
-      <c r="D202" s="42">
-        <v>1</v>
-      </c>
-      <c r="E202" s="42">
+      <c r="C202" s="41">
         <v>2</v>
       </c>
-      <c r="F202" s="42">
-        <v>9.42</v>
+      <c r="D202" s="41">
+        <v>5</v>
+      </c>
+      <c r="E202" s="41">
+        <v>2</v>
+      </c>
+      <c r="F202" s="41">
+        <v>13.9</v>
       </c>
     </row>
     <row r="203" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="42">
+      <c r="B203" s="46">
         <v>6</v>
       </c>
-      <c r="C203" s="42">
-        <v>3</v>
-      </c>
-      <c r="D203" s="42">
+      <c r="C203" s="46">
         <v>2</v>
       </c>
-      <c r="E203" s="42">
+      <c r="D203" s="46">
+        <v>6</v>
+      </c>
+      <c r="E203" s="46">
         <v>2</v>
       </c>
-      <c r="F203" s="42">
-        <v>9.48</v>
+      <c r="F203" s="46">
+        <v>14.6</v>
       </c>
     </row>
     <row r="204" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24094,13 +25656,13 @@
         <v>3</v>
       </c>
       <c r="D204" s="42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E204" s="42">
         <v>2</v>
       </c>
       <c r="F204" s="42">
-        <v>9.4499999999999993</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="205" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24111,13 +25673,13 @@
         <v>3</v>
       </c>
       <c r="D205" s="42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E205" s="42">
         <v>2</v>
       </c>
       <c r="F205" s="42">
-        <v>9.4</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="206" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24128,64 +25690,64 @@
         <v>3</v>
       </c>
       <c r="D206" s="42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E206" s="42">
         <v>2</v>
       </c>
       <c r="F206" s="42">
-        <v>9.42</v>
+        <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="207" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B207" s="43">
+      <c r="B207" s="42">
         <v>6</v>
       </c>
-      <c r="C207" s="43">
+      <c r="C207" s="42">
+        <v>3</v>
+      </c>
+      <c r="D207" s="42">
         <v>4</v>
       </c>
-      <c r="D207" s="43">
-        <v>1</v>
-      </c>
-      <c r="E207" s="43">
+      <c r="E207" s="42">
         <v>2</v>
       </c>
-      <c r="F207" s="43">
-        <v>9.33</v>
+      <c r="F207" s="42">
+        <v>9.4</v>
       </c>
     </row>
     <row r="208" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="43">
+      <c r="B208" s="42">
         <v>6</v>
       </c>
-      <c r="C208" s="43">
-        <v>4</v>
-      </c>
-      <c r="D208" s="43">
+      <c r="C208" s="42">
+        <v>3</v>
+      </c>
+      <c r="D208" s="42">
+        <v>5</v>
+      </c>
+      <c r="E208" s="42">
         <v>2</v>
       </c>
-      <c r="E208" s="43">
-        <v>2</v>
-      </c>
-      <c r="F208" s="43">
-        <v>9.41</v>
+      <c r="F208" s="42">
+        <v>9.42</v>
       </c>
     </row>
     <row r="209" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="43">
+      <c r="B209" s="47">
         <v>6</v>
       </c>
-      <c r="C209" s="43">
-        <v>4</v>
-      </c>
-      <c r="D209" s="43">
+      <c r="C209" s="47">
         <v>3</v>
       </c>
-      <c r="E209" s="43">
+      <c r="D209" s="47">
+        <v>6</v>
+      </c>
+      <c r="E209" s="47">
         <v>2</v>
       </c>
-      <c r="F209" s="43">
-        <v>9.34</v>
+      <c r="F209" s="47">
+        <v>10.210000000000001</v>
       </c>
     </row>
     <row r="210" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24196,13 +25758,13 @@
         <v>4</v>
       </c>
       <c r="D210" s="43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E210" s="43">
         <v>2</v>
       </c>
       <c r="F210" s="43">
-        <v>9.41</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="211" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24213,81 +25775,81 @@
         <v>4</v>
       </c>
       <c r="D211" s="43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E211" s="43">
         <v>2</v>
       </c>
       <c r="F211" s="43">
-        <v>9.4600000000000009</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="212" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="44">
+      <c r="B212" s="43">
         <v>6</v>
       </c>
-      <c r="C212" s="44">
-        <v>5</v>
-      </c>
-      <c r="D212" s="44">
-        <v>1</v>
-      </c>
-      <c r="E212" s="44">
+      <c r="C212" s="43">
+        <v>4</v>
+      </c>
+      <c r="D212" s="43">
+        <v>3</v>
+      </c>
+      <c r="E212" s="43">
         <v>2</v>
       </c>
-      <c r="F212" s="44">
-        <v>9.33</v>
+      <c r="F212" s="43">
+        <v>9.34</v>
       </c>
     </row>
     <row r="213" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="44">
+      <c r="B213" s="43">
         <v>6</v>
       </c>
-      <c r="C213" s="44">
-        <v>5</v>
-      </c>
-      <c r="D213" s="44">
+      <c r="C213" s="43">
+        <v>4</v>
+      </c>
+      <c r="D213" s="43">
+        <v>4</v>
+      </c>
+      <c r="E213" s="43">
         <v>2</v>
       </c>
-      <c r="E213" s="44">
-        <v>2</v>
-      </c>
-      <c r="F213" s="44">
-        <v>9.42</v>
+      <c r="F213" s="43">
+        <v>9.41</v>
       </c>
     </row>
     <row r="214" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="44">
+      <c r="B214" s="43">
         <v>6</v>
       </c>
-      <c r="C214" s="44">
+      <c r="C214" s="43">
+        <v>4</v>
+      </c>
+      <c r="D214" s="43">
         <v>5</v>
       </c>
-      <c r="D214" s="44">
-        <v>3</v>
-      </c>
-      <c r="E214" s="44">
+      <c r="E214" s="43">
         <v>2</v>
       </c>
-      <c r="F214" s="44">
+      <c r="F214" s="43">
         <v>9.4600000000000009</v>
       </c>
     </row>
     <row r="215" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="44">
+      <c r="B215" s="48">
         <v>6</v>
       </c>
-      <c r="C215" s="44">
-        <v>5</v>
-      </c>
-      <c r="D215" s="44">
+      <c r="C215" s="48">
         <v>4</v>
       </c>
-      <c r="E215" s="44">
+      <c r="D215" s="48">
+        <v>6</v>
+      </c>
+      <c r="E215" s="48">
         <v>2</v>
       </c>
-      <c r="F215" s="44">
-        <v>9.3699999999999992</v>
+      <c r="F215" s="48">
+        <v>9.5299999999999994</v>
       </c>
     </row>
     <row r="216" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24298,13 +25860,200 @@
         <v>5</v>
       </c>
       <c r="D216" s="44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E216" s="44">
         <v>2</v>
       </c>
       <c r="F216" s="44">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="44">
+        <v>6</v>
+      </c>
+      <c r="C217" s="44">
+        <v>5</v>
+      </c>
+      <c r="D217" s="44">
+        <v>2</v>
+      </c>
+      <c r="E217" s="44">
+        <v>2</v>
+      </c>
+      <c r="F217" s="44">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="44">
+        <v>6</v>
+      </c>
+      <c r="C218" s="44">
+        <v>5</v>
+      </c>
+      <c r="D218" s="44">
+        <v>3</v>
+      </c>
+      <c r="E218" s="44">
+        <v>2</v>
+      </c>
+      <c r="F218" s="44">
+        <v>9.4600000000000009</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B219" s="44">
+        <v>6</v>
+      </c>
+      <c r="C219" s="44">
+        <v>5</v>
+      </c>
+      <c r="D219" s="44">
+        <v>4</v>
+      </c>
+      <c r="E219" s="44">
+        <v>2</v>
+      </c>
+      <c r="F219" s="44">
+        <v>9.3699999999999992</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B220" s="44">
+        <v>6</v>
+      </c>
+      <c r="C220" s="44">
+        <v>5</v>
+      </c>
+      <c r="D220" s="44">
+        <v>5</v>
+      </c>
+      <c r="E220" s="44">
+        <v>2</v>
+      </c>
+      <c r="F220" s="44">
         <v>9.3800000000000008</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B221" s="49">
+        <v>6</v>
+      </c>
+      <c r="C221" s="49">
+        <v>5</v>
+      </c>
+      <c r="D221" s="49">
+        <v>6</v>
+      </c>
+      <c r="E221" s="49">
+        <v>2</v>
+      </c>
+      <c r="F221" s="49">
+        <v>9.36</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="50">
+        <v>6</v>
+      </c>
+      <c r="C222" s="50">
+        <v>6</v>
+      </c>
+      <c r="D222" s="50">
+        <v>1</v>
+      </c>
+      <c r="E222" s="50">
+        <v>2</v>
+      </c>
+      <c r="F222" s="50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="50">
+        <v>6</v>
+      </c>
+      <c r="C223" s="50">
+        <v>6</v>
+      </c>
+      <c r="D223" s="50">
+        <v>2</v>
+      </c>
+      <c r="E223" s="50">
+        <v>2</v>
+      </c>
+      <c r="F223" s="50">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="50">
+        <v>6</v>
+      </c>
+      <c r="C224" s="50">
+        <v>6</v>
+      </c>
+      <c r="D224" s="50">
+        <v>3</v>
+      </c>
+      <c r="E224" s="50">
+        <v>2</v>
+      </c>
+      <c r="F224" s="50">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="50">
+        <v>6</v>
+      </c>
+      <c r="C225" s="50">
+        <v>6</v>
+      </c>
+      <c r="D225" s="50">
+        <v>4</v>
+      </c>
+      <c r="E225" s="50">
+        <v>2</v>
+      </c>
+      <c r="F225" s="50">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="50">
+        <v>6</v>
+      </c>
+      <c r="C226" s="50">
+        <v>6</v>
+      </c>
+      <c r="D226" s="50">
+        <v>5</v>
+      </c>
+      <c r="E226" s="50">
+        <v>2</v>
+      </c>
+      <c r="F226" s="50">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B227" s="51">
+        <v>6</v>
+      </c>
+      <c r="C227" s="51">
+        <v>6</v>
+      </c>
+      <c r="D227" s="51">
+        <v>6</v>
+      </c>
+      <c r="E227" s="51">
+        <v>2</v>
+      </c>
+      <c r="F227" s="51">
+        <v>5.01</v>
       </c>
     </row>
   </sheetData>
